--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="variables" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="183">
   <si>
     <t>activity</t>
   </si>
@@ -526,6 +526,54 @@
   </si>
   <si>
     <t>mean of fBodyBodyGyroJerkMag.meanFreq.. for the particular combination of activity &amp; subject</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Download Data</t>
+  </si>
+  <si>
+    <t>Download files from assignment page</t>
+  </si>
+  <si>
+    <t>Unzip data</t>
+  </si>
+  <si>
+    <t>Unzip the downloaded data package</t>
+  </si>
+  <si>
+    <t>read in</t>
+  </si>
+  <si>
+    <t>read all files required for answering  the question</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>combine test+train data sets and update the data in R</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>slice the interesting measurement points (std() and mean()) from the data block</t>
+  </si>
+  <si>
+    <t>tidy</t>
+  </si>
+  <si>
+    <t>build tidy data set and aggreate as asked for</t>
+  </si>
+  <si>
+    <t>write data</t>
+  </si>
+  <si>
+    <t>write tidy table to disk</t>
   </si>
 </sst>
 </file>
@@ -854,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D62" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -1775,14 +1823,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="variables" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="steps" sheetId="2" r:id="rId1"/>
+    <sheet name="variables" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -900,6 +900,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1819,87 +1902,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>